--- a/Example/To-do_List_Application/withExcel/data.xlsx
+++ b/Example/To-do_List_Application/withExcel/data.xlsx
@@ -1,41 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimkyubeom/workspace/CYBIL/How to Really understand Programming for Beginner/Example/To-do_List_Application/withExcel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276CD922-2D40-494D-AAF8-AAD1D5C5445F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13980" windowWidth="24600" xWindow="700" yWindow="960"/>
+    <workbookView xWindow="700" yWindow="960" windowWidth="24600" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,19 +60,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -363,30 +381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>베인스킨나옴불꽃</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>